--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H2">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I2">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J2">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N2">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q2">
-        <v>0.02426648042</v>
+        <v>0.01478865166511111</v>
       </c>
       <c r="R2">
-        <v>0.21839832378</v>
+        <v>0.133097864986</v>
       </c>
       <c r="S2">
-        <v>8.682617028876316E-05</v>
+        <v>6.445496591999635E-05</v>
       </c>
       <c r="T2">
-        <v>8.682617028876316E-05</v>
+        <v>6.445496591999633E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H3">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I3">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J3">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>60.237349</v>
       </c>
       <c r="O3">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P3">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q3">
-        <v>1.810232733031667</v>
+        <v>1.356230526657445</v>
       </c>
       <c r="R3">
-        <v>16.292094597285</v>
+        <v>12.206074739917</v>
       </c>
       <c r="S3">
-        <v>0.006477065187045392</v>
+        <v>0.005911004894488972</v>
       </c>
       <c r="T3">
-        <v>0.006477065187045391</v>
+        <v>0.005911004894488972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H4">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I4">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J4">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N4">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q4">
-        <v>0.3778925860883333</v>
+        <v>0.1907134965262222</v>
       </c>
       <c r="R4">
-        <v>3.401033274795</v>
+        <v>1.716421468736</v>
       </c>
       <c r="S4">
-        <v>0.001352110625961419</v>
+        <v>0.000831207076712807</v>
       </c>
       <c r="T4">
-        <v>0.001352110625961419</v>
+        <v>0.0008312070767128069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H5">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I5">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J5">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N5">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O5">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P5">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q5">
-        <v>0.015740431915</v>
+        <v>0.01109372896922222</v>
       </c>
       <c r="R5">
-        <v>0.141663887235</v>
+        <v>0.099843560723</v>
       </c>
       <c r="S5">
-        <v>5.63197216166576E-05</v>
+        <v>4.835098823267348E-05</v>
       </c>
       <c r="T5">
-        <v>5.631972161665759E-05</v>
+        <v>4.835098823267348E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>22.982727</v>
       </c>
       <c r="I6">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J6">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N6">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O6">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P6">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q6">
-        <v>2.062040910076</v>
+        <v>1.677335596459334</v>
       </c>
       <c r="R6">
-        <v>18.55836819068401</v>
+        <v>15.096020368134</v>
       </c>
       <c r="S6">
-        <v>0.007378042142983955</v>
+        <v>0.007310511543201651</v>
       </c>
       <c r="T6">
-        <v>0.007378042142983955</v>
+        <v>0.007310511543201649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.982727</v>
       </c>
       <c r="I7">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J7">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>60.237349</v>
       </c>
       <c r="O7">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P7">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q7">
         <v>153.8242830300804</v>
@@ -883,10 +883,10 @@
         <v>1384.418547270723</v>
       </c>
       <c r="S7">
-        <v>0.5503877431648021</v>
+        <v>0.6704288629478115</v>
       </c>
       <c r="T7">
-        <v>0.550387743164802</v>
+        <v>0.6704288629478113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.982727</v>
       </c>
       <c r="I8">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J8">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N8">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O8">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P8">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q8">
-        <v>32.11137167985567</v>
+        <v>21.63081149604267</v>
       </c>
       <c r="R8">
-        <v>289.002345118701</v>
+        <v>194.677303464384</v>
       </c>
       <c r="S8">
-        <v>0.1148954185949029</v>
+        <v>0.0942758846020071</v>
       </c>
       <c r="T8">
-        <v>0.1148954185949029</v>
+        <v>0.09427588460200709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>22.982727</v>
       </c>
       <c r="I9">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J9">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N9">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O9">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P9">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q9">
-        <v>1.337541085037</v>
+        <v>1.258255784159667</v>
       </c>
       <c r="R9">
-        <v>12.037869765333</v>
+        <v>11.324302057437</v>
       </c>
       <c r="S9">
-        <v>0.004785760769902355</v>
+        <v>0.005483991071206305</v>
       </c>
       <c r="T9">
-        <v>0.004785760769902355</v>
+        <v>0.005483991071206305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H10">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I10">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J10">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N10">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O10">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P10">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q10">
-        <v>0.9312612335133335</v>
+        <v>0.425192072211111</v>
       </c>
       <c r="R10">
-        <v>8.381351101620002</v>
+        <v>3.826728649899999</v>
       </c>
       <c r="S10">
-        <v>0.003332079685429402</v>
+        <v>0.001853160189611774</v>
       </c>
       <c r="T10">
-        <v>0.003332079685429402</v>
+        <v>0.001853160189611774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H11">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I11">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J11">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>60.237349</v>
       </c>
       <c r="O11">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P11">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q11">
-        <v>69.4702955983628</v>
+        <v>38.99330926739444</v>
       </c>
       <c r="R11">
-        <v>625.232660385265</v>
+        <v>350.93978340655</v>
       </c>
       <c r="S11">
-        <v>0.2485667311961246</v>
+        <v>0.1699487199273959</v>
       </c>
       <c r="T11">
-        <v>0.2485667311961246</v>
+        <v>0.1699487199273959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H12">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I12">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J12">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N12">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q12">
-        <v>14.50217377078389</v>
+        <v>5.483249495822221</v>
       </c>
       <c r="R12">
-        <v>130.519563937055</v>
+        <v>49.34924546239999</v>
       </c>
       <c r="S12">
-        <v>0.05188919808665507</v>
+        <v>0.023898234091066</v>
       </c>
       <c r="T12">
-        <v>0.05188919808665506</v>
+        <v>0.023898234091066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H13">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I13">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J13">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N13">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O13">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P13">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q13">
-        <v>0.6040618082016668</v>
+        <v>0.3189584632722222</v>
       </c>
       <c r="R13">
-        <v>5.436556273815</v>
+        <v>2.870626169449999</v>
       </c>
       <c r="S13">
-        <v>0.0021613506580307</v>
+        <v>0.001390150863354656</v>
       </c>
       <c r="T13">
-        <v>0.0021613506580307</v>
+        <v>0.001390150863354656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.182832</v>
+      </c>
+      <c r="H14">
+        <v>0.548496</v>
+      </c>
+      <c r="I14">
+        <v>0.01855546683899075</v>
+      </c>
+      <c r="J14">
+        <v>0.01855546683899075</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.09760766666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.292823</v>
-      </c>
-      <c r="I14">
-        <v>0.008631353996256501</v>
-      </c>
-      <c r="J14">
-        <v>0.008631353996256502</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N14">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O14">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P14">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q14">
-        <v>0.02627246999066667</v>
+        <v>0.040030578848</v>
       </c>
       <c r="R14">
-        <v>0.236452229916</v>
+        <v>0.360275209632</v>
       </c>
       <c r="S14">
-        <v>9.400365911473386E-05</v>
+        <v>0.0001744695631375655</v>
       </c>
       <c r="T14">
-        <v>9.400365911473389E-05</v>
+        <v>0.0001744695631375655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H15">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I15">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J15">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>60.237349</v>
       </c>
       <c r="O15">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P15">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q15">
-        <v>1.959875694025222</v>
+        <v>3.671104997456</v>
       </c>
       <c r="R15">
-        <v>17.638881246227</v>
+        <v>33.039944977104</v>
       </c>
       <c r="S15">
-        <v>0.007012492038770978</v>
+        <v>0.01600017045894609</v>
       </c>
       <c r="T15">
-        <v>0.007012492038770979</v>
+        <v>0.01600017045894609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H16">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I16">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J16">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N16">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O16">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P16">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q16">
-        <v>0.4091310917721111</v>
+        <v>0.516231758848</v>
       </c>
       <c r="R16">
-        <v>3.682179825949</v>
+        <v>4.646085829632</v>
       </c>
       <c r="S16">
-        <v>0.00146388290472298</v>
+        <v>0.00224994821548646</v>
       </c>
       <c r="T16">
-        <v>0.00146388290472298</v>
+        <v>0.002249948215486459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H17">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I17">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J17">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N17">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O17">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P17">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q17">
-        <v>0.01704161534633333</v>
+        <v>0.030028998064</v>
       </c>
       <c r="R17">
-        <v>0.153374538117</v>
+        <v>0.270260982576</v>
       </c>
       <c r="S17">
-        <v>6.09753936478085E-05</v>
+        <v>0.0001308786014206396</v>
       </c>
       <c r="T17">
-        <v>6.097539364780851E-05</v>
+        <v>0.0001308786014206396</v>
       </c>
     </row>
   </sheetData>
